--- a/teaching/traditional_assets/database/data/malaysia/malaysia_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0522</v>
+        <v>0.07205</v>
       </c>
       <c r="E2">
-        <v>-0.256</v>
+        <v>0.09864999999999999</v>
       </c>
       <c r="G2">
-        <v>0.06066411238825032</v>
+        <v>0.01854645183407611</v>
       </c>
       <c r="H2">
-        <v>0.06066411238825032</v>
+        <v>0.01854645183407611</v>
       </c>
       <c r="I2">
-        <v>0.02749973723157058</v>
+        <v>0.03208776139869729</v>
       </c>
       <c r="J2">
-        <v>0.01867113909748613</v>
+        <v>0.02593565809246731</v>
       </c>
       <c r="K2">
-        <v>20.44</v>
+        <v>63.52</v>
       </c>
       <c r="L2">
-        <v>0.1305236270753512</v>
+        <v>0.2177579705176551</v>
       </c>
       <c r="M2">
-        <v>6.468999999999999</v>
+        <v>21.45</v>
       </c>
       <c r="N2">
-        <v>0.02608467741935484</v>
+        <v>0.02886167922497309</v>
       </c>
       <c r="O2">
-        <v>0.3164872798434442</v>
+        <v>0.3376889168765743</v>
       </c>
       <c r="P2">
-        <v>5.978</v>
+        <v>21.45</v>
       </c>
       <c r="Q2">
-        <v>0.02410483870967742</v>
+        <v>0.02886167922497309</v>
       </c>
       <c r="R2">
-        <v>0.2924657534246576</v>
+        <v>0.3376889168765743</v>
       </c>
       <c r="S2">
-        <v>0.4909999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.07590044829185344</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>636.1</v>
+        <v>583.2</v>
       </c>
       <c r="V2">
-        <v>2.56491935483871</v>
+        <v>0.7847147470398278</v>
       </c>
       <c r="W2">
-        <v>0.02496513249651325</v>
+        <v>0.06389071330479457</v>
       </c>
       <c r="X2">
-        <v>0.05707884665231305</v>
+        <v>0.03984525344651826</v>
       </c>
       <c r="Y2">
-        <v>-0.03211371415579981</v>
+        <v>0.02404545985827631</v>
       </c>
       <c r="Z2">
-        <v>0.3681780333222999</v>
+        <v>0.7938927142584981</v>
       </c>
       <c r="AA2">
-        <v>0.001233447790719663</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04856681609914087</v>
+        <v>0.03601135655521525</v>
       </c>
       <c r="AC2">
-        <v>-0.04630686804067517</v>
+        <v>-0.03490311969511684</v>
       </c>
       <c r="AD2">
-        <v>152.22</v>
+        <v>229.72</v>
       </c>
       <c r="AE2">
-        <v>3.807705747680239</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>156.0277057476802</v>
+        <v>229.72</v>
       </c>
       <c r="AG2">
-        <v>-480.0722942523198</v>
+        <v>-353.48</v>
       </c>
       <c r="AH2">
-        <v>0.3861807087188255</v>
+        <v>0.2361139662048267</v>
       </c>
       <c r="AI2">
-        <v>0.1805191534531566</v>
+        <v>0.1933637480850491</v>
       </c>
       <c r="AJ2">
-        <v>2.068632517289474</v>
+        <v>-0.9070101611413323</v>
       </c>
       <c r="AK2">
-        <v>-2.103479473184862</v>
+        <v>-0.5844383452928145</v>
       </c>
       <c r="AL2">
-        <v>5.43</v>
+        <v>4.74</v>
       </c>
       <c r="AM2">
-        <v>-0.8300000000000001</v>
+        <v>0.1000000000000005</v>
       </c>
       <c r="AN2">
-        <v>13.11337008959338</v>
+        <v>24.96956521739131</v>
       </c>
       <c r="AO2">
-        <v>0.5101289134438306</v>
+        <v>1.974683544303797</v>
       </c>
       <c r="AP2">
-        <v>-41.35702052483803</v>
+        <v>-38.42173913043479</v>
       </c>
       <c r="AQ2">
-        <v>-3.337349397590361</v>
+        <v>93.5999999999995</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0522</v>
+        <v>-0.111</v>
       </c>
       <c r="E3">
-        <v>-0.101</v>
+        <v>0.102</v>
       </c>
       <c r="G3">
-        <v>0.1888667992047714</v>
+        <v>0.1056640625</v>
       </c>
       <c r="H3">
-        <v>0.1888667992047714</v>
+        <v>0.1056640625</v>
       </c>
       <c r="I3">
-        <v>0.05756930287077756</v>
+        <v>0.1828125</v>
       </c>
       <c r="J3">
-        <v>0.04922877460120637</v>
+        <v>0.1494293478260869</v>
       </c>
       <c r="K3">
-        <v>17.4</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>0.3459244532803181</v>
+        <v>0.29296875</v>
       </c>
       <c r="M3">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="N3">
-        <v>0.02401515151515151</v>
+        <v>0.02056737588652482</v>
       </c>
       <c r="O3">
-        <v>0.182183908045977</v>
+        <v>0.2126666666666667</v>
       </c>
       <c r="P3">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q3">
-        <v>0.02401515151515151</v>
+        <v>0.02056737588652482</v>
       </c>
       <c r="R3">
-        <v>0.182183908045977</v>
+        <v>0.2126666666666667</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>23.5</v>
+        <v>72.2</v>
       </c>
       <c r="V3">
-        <v>0.178030303030303</v>
+        <v>0.4655061250805932</v>
       </c>
       <c r="W3">
-        <v>0.04282549840019689</v>
+        <v>0.03580806875149201</v>
       </c>
       <c r="X3">
-        <v>0.06599933895767225</v>
+        <v>0.04492862589487806</v>
       </c>
       <c r="Y3">
-        <v>-0.02317384055747536</v>
+        <v>-0.009120557143386054</v>
       </c>
       <c r="Z3">
-        <v>0.09869299080343932</v>
+        <v>0.09957215091404123</v>
       </c>
       <c r="AA3">
-        <v>0.004858534998981448</v>
+        <v>0.01487900157272589</v>
       </c>
       <c r="AB3">
-        <v>0.04856681609914087</v>
+        <v>0.03661715055217012</v>
       </c>
       <c r="AC3">
-        <v>-0.04370828110015942</v>
+        <v>-0.02173814897944424</v>
       </c>
       <c r="AD3">
-        <v>117.7</v>
+        <v>92.3</v>
       </c>
       <c r="AE3">
-        <v>0.2413203279994444</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>117.9413203279994</v>
+        <v>92.3</v>
       </c>
       <c r="AG3">
-        <v>94.44132032799945</v>
+        <v>20.09999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.4718760394368741</v>
+        <v>0.3730800323362975</v>
       </c>
       <c r="AI3">
-        <v>0.2184740513311209</v>
+        <v>0.1746452223273415</v>
       </c>
       <c r="AJ3">
-        <v>0.4170675219134102</v>
+        <v>0.1147260273972602</v>
       </c>
       <c r="AK3">
-        <v>0.182904827891765</v>
+        <v>0.0440499671268902</v>
       </c>
       <c r="AL3">
-        <v>5.43</v>
+        <v>4.74</v>
       </c>
       <c r="AM3">
-        <v>-0.8300000000000001</v>
+        <v>0.1000000000000005</v>
       </c>
       <c r="AN3">
-        <v>12.4103753690426</v>
+        <v>10.03260869565217</v>
       </c>
       <c r="AO3">
-        <v>0.5101289134438306</v>
+        <v>1.974683544303797</v>
       </c>
       <c r="AP3">
-        <v>9.957962919443215</v>
+        <v>2.184782608695652</v>
       </c>
       <c r="AQ3">
-        <v>-3.337349397590361</v>
+        <v>93.5999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.144</v>
+        <v>0.0221</v>
       </c>
       <c r="E4">
-        <v>-0.256</v>
+        <v>-0.0284</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -871,103 +871,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01054601994227203</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007189739070910174</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.79</v>
+        <v>3.42</v>
       </c>
       <c r="L4">
-        <v>0.2182926829268293</v>
+        <v>0.2898305084745763</v>
       </c>
       <c r="M4">
-        <v>0.968</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.02469387755102041</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.5407821229050279</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.968</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.02469387755102041</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.5407821229050279</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>33.2</v>
+        <v>36.1</v>
       </c>
       <c r="V4">
-        <v>0.8469387755102041</v>
+        <v>0.7458677685950413</v>
       </c>
       <c r="W4">
-        <v>0.02496513249651325</v>
+        <v>0.04763231197771588</v>
       </c>
       <c r="X4">
-        <v>0.0480492138298485</v>
+        <v>0.03464964262470532</v>
       </c>
       <c r="Y4">
-        <v>-0.02308408133333525</v>
+        <v>0.01298266935301055</v>
       </c>
       <c r="Z4">
-        <v>0.1715566835673101</v>
+        <v>0.2948525737131435</v>
       </c>
       <c r="AA4">
-        <v>0.001233447790719663</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04754031583139483</v>
+        <v>0.03414612112282716</v>
       </c>
       <c r="AC4">
-        <v>-0.04630686804067517</v>
+        <v>-0.03414612112282716</v>
       </c>
       <c r="AD4">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="AE4">
-        <v>0.3876131823668467</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.807613182366847</v>
+        <v>2.12</v>
       </c>
       <c r="AG4">
-        <v>-31.39238681763316</v>
+        <v>-33.98</v>
       </c>
       <c r="AH4">
-        <v>0.04407994131060803</v>
+        <v>0.04196357878068092</v>
       </c>
       <c r="AI4">
-        <v>0.02455742149780604</v>
+        <v>0.02720739219712526</v>
       </c>
       <c r="AJ4">
-        <v>-4.020740536753472</v>
+        <v>-2.356449375866853</v>
       </c>
       <c r="AK4">
-        <v>-0.7768928760021943</v>
+        <v>-0.8125298900047826</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>8.658536585365853</v>
-      </c>
-      <c r="AP4">
-        <v>-191.4169927904461</v>
       </c>
     </row>
     <row r="5">
@@ -978,124 +969,240 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Hong Leong Capital Berhad (KLSE:HLCAP)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>0.171</v>
+      </c>
+      <c r="E5">
+        <v>0.0953</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>27.9</v>
+      </c>
+      <c r="L5">
+        <v>0.4325581395348837</v>
+      </c>
+      <c r="M5">
+        <v>12.8</v>
+      </c>
+      <c r="N5">
+        <v>0.03444564047362755</v>
+      </c>
+      <c r="O5">
+        <v>0.4587813620071685</v>
+      </c>
+      <c r="P5">
+        <v>12.8</v>
+      </c>
+      <c r="Q5">
+        <v>0.03444564047362755</v>
+      </c>
+      <c r="R5">
+        <v>0.4587813620071685</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.2002152852529602</v>
+      </c>
+      <c r="W5">
+        <v>0.1424923391215526</v>
+      </c>
+      <c r="X5">
+        <v>0.03629655363498693</v>
+      </c>
+      <c r="Y5">
+        <v>0.1061957854865657</v>
+      </c>
+      <c r="Z5">
+        <v>0.4451038575667655</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.03566011826740653</v>
+      </c>
+      <c r="AC5">
+        <v>-0.03566011826740653</v>
+      </c>
+      <c r="AD5">
+        <v>49.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>49.1</v>
+      </c>
+      <c r="AG5">
+        <v>-25.3</v>
+      </c>
+      <c r="AH5">
+        <v>0.1167102448300451</v>
+      </c>
+      <c r="AI5">
+        <v>0.1865501519756839</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.07305804215997691</v>
+      </c>
+      <c r="AK5">
+        <v>-0.1340042372881356</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Kenanga Investment Bank Berhad (KLSE:KENANGA)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.00239</v>
-      </c>
-      <c r="E5">
-        <v>-0.353</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.01349893529599603</v>
-      </c>
-      <c r="J5">
-        <v>0.006749467647998014</v>
-      </c>
-      <c r="K5">
-        <v>1.25</v>
-      </c>
-      <c r="L5">
-        <v>0.0127420998980632</v>
-      </c>
-      <c r="M5">
-        <v>2.331</v>
-      </c>
-      <c r="N5">
-        <v>0.0303515625</v>
-      </c>
-      <c r="O5">
-        <v>1.8648</v>
-      </c>
-      <c r="P5">
-        <v>1.84</v>
-      </c>
-      <c r="Q5">
-        <v>0.02395833333333333</v>
-      </c>
-      <c r="R5">
-        <v>1.472</v>
-      </c>
-      <c r="S5">
-        <v>0.4909999999999999</v>
-      </c>
-      <c r="T5">
-        <v>0.2106392106392106</v>
-      </c>
-      <c r="U5">
-        <v>579.4</v>
-      </c>
-      <c r="V5">
-        <v>7.544270833333333</v>
-      </c>
-      <c r="W5">
-        <v>0.005865790708587518</v>
-      </c>
-      <c r="X5">
-        <v>0.05707884665231305</v>
-      </c>
-      <c r="Y5">
-        <v>-0.05121305594372554</v>
-      </c>
-      <c r="Z5">
-        <v>-0.742499912097438</v>
-      </c>
-      <c r="AA5">
-        <v>-0.005011479135343028</v>
-      </c>
-      <c r="AB5">
-        <v>0.05047797585471346</v>
-      </c>
-      <c r="AC5">
-        <v>-0.05548945499005649</v>
-      </c>
-      <c r="AD5">
-        <v>33.1</v>
-      </c>
-      <c r="AE5">
-        <v>3.178772237313948</v>
-      </c>
-      <c r="AF5">
-        <v>36.27877223731395</v>
-      </c>
-      <c r="AG5">
-        <v>-543.121227762686</v>
-      </c>
-      <c r="AH5">
-        <v>0.3208274331204899</v>
-      </c>
-      <c r="AI5">
-        <v>0.1446067832434892</v>
-      </c>
-      <c r="AJ5">
-        <v>1.164693338899605</v>
-      </c>
-      <c r="AK5">
-        <v>1.653230238610397</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>16.88775510204082</v>
-      </c>
-      <c r="AP5">
-        <v>-277.1026672258602</v>
+      <c r="D6">
+        <v>0.122</v>
+      </c>
+      <c r="E6">
+        <v>2.149</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>17.2</v>
+      </c>
+      <c r="L6">
+        <v>0.1047503045066991</v>
+      </c>
+      <c r="M6">
+        <v>5.46</v>
+      </c>
+      <c r="N6">
+        <v>0.03248066627007733</v>
+      </c>
+      <c r="O6">
+        <v>0.3174418604651163</v>
+      </c>
+      <c r="P6">
+        <v>5.46</v>
+      </c>
+      <c r="Q6">
+        <v>0.03248066627007733</v>
+      </c>
+      <c r="R6">
+        <v>0.3174418604651163</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>400.5</v>
+      </c>
+      <c r="V6">
+        <v>2.382510410469958</v>
+      </c>
+      <c r="W6">
+        <v>0.08014911463187326</v>
+      </c>
+      <c r="X6">
+        <v>0.04339395325804958</v>
+      </c>
+      <c r="Y6">
+        <v>0.03675516137382367</v>
+      </c>
+      <c r="Z6">
+        <v>-0.4950256255652698</v>
+      </c>
+      <c r="AA6">
+        <v>-0</v>
+      </c>
+      <c r="AB6">
+        <v>0.03636259484302398</v>
+      </c>
+      <c r="AC6">
+        <v>-0.03636259484302398</v>
+      </c>
+      <c r="AD6">
+        <v>86.2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>86.2</v>
+      </c>
+      <c r="AG6">
+        <v>-314.3</v>
+      </c>
+      <c r="AH6">
+        <v>0.3389697208022021</v>
+      </c>
+      <c r="AI6">
+        <v>0.2707286432160804</v>
+      </c>
+      <c r="AJ6">
+        <v>2.149794801641587</v>
+      </c>
+      <c r="AK6">
+        <v>3.828258221680876</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
